--- a/IIT_Madras-Excel_Projects-Statistics_Foundation_Level-Data_Science-BS_Degree/Week-2-Mini-Projects/IITM - Stats 1 - Hospital Dataset Copy.xlsx
+++ b/IIT_Madras-Excel_Projects-Statistics_Foundation_Level-Data_Science-BS_Degree/Week-2-Mini-Projects/IITM - Stats 1 - Hospital Dataset Copy.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shubham-Data-Analytics\Data-Analytics-GitHub\IIT_Madras-Excel_Projects-Statistics_Foundation_Level-Data_Science-BS_Degree\Week-2-Mini-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73088045-D3A8-4910-85AD-984A9AF57CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C800EC1-FD79-44EC-9A99-F477220DEC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="787" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Frequency-Table-Blood-Group" sheetId="6" r:id="rId2"/>
     <sheet name="Frequency-Table-Gender" sheetId="7" r:id="rId3"/>
+    <sheet name="Pie Chart" sheetId="8" r:id="rId4"/>
+    <sheet name="Bar Chart" sheetId="10" r:id="rId5"/>
+    <sheet name="Column Chart" sheetId="11" r:id="rId6"/>
+    <sheet name="Pareto Chart" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
   <si>
     <t>S.No</t>
   </si>
@@ -276,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,12 +304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,22 +316,31 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -345,6 +356,8568 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blood Group Pie Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19455037351100343"/>
+          <c:y val="0.14112400188869326"/>
+          <c:w val="0.61910438118312139"/>
+          <c:h val="0.73273460992175687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Frequency-Table-Blood-Group'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-019C-4422-8A11-AE63B9CCBF68}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="50800"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Frequency-Table-Blood-Group'!$H$4:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AB-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AB+</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Frequency-Table-Blood-Group'!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-019C-4422-8A11-AE63B9CCBF68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Pie Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19433564394194316"/>
+          <c:y val="0.15513166122340316"/>
+          <c:w val="0.59058739452440234"/>
+          <c:h val="0.71000511257095278"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pie Chart'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pie Chart'!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pie Chart'!$L$3:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9495-46A2-BBFE-47AD44C2EBAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Blood</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Group vs Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Chart'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AB-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AB+</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94FF-486B-8774-2AC6B25C911B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1039007199"/>
+        <c:axId val="1039009119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1039007199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Blood</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Groups</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039009119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039009119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039007199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Chart'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$N$3:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-257B-4195-8993-09691A0EAF56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1156238223"/>
+        <c:axId val="1156243983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1156238223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gender</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156243983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1156243983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156238223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blood</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Group vs. Frequency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Chart'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Column Chart'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AB-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AB+</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>O-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Chart'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2253-4AC6-A4E8-D18B15D66258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1156221423"/>
+        <c:axId val="1156247343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1156221423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Blood</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Groups</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156247343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1156247343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156221423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Frequency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Chart'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Column Chart'!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Chart'!$M$3:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75A6-4767-B4FF-9CA30CF4A080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1156242063"/>
+        <c:axId val="1156215663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1156242063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gender</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156215663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1156215663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156242063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blood</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Group vs. Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AB-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AB+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pareto Chart'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1C3-4EB4-83BD-DD5656FBEC0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1156216143"/>
+        <c:axId val="1156232943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1156216143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Blood</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Groups</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156232943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1156232943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156216143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pareto Chart'!$N$3:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D61F-4F93-9FD8-A315C10ABCF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1156219983"/>
+        <c:axId val="1156237263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1156219983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gender</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156237263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1156237263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156219983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF68376-99C5-424F-8C4F-C884106F6394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB5AC74-9A40-EF21-209B-4DEC1AF3F236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E0F2A7-0DDF-F237-A741-D4EB6F55FBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>701041</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B20B9C-1199-8CBA-802C-D15A63D620D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA43ADC-3244-E9D6-6BBE-B2AF5573B7C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7009CC24-B80D-2F1D-8F16-CB2F3D8A4DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A4B41B-2987-2D97-76B1-F6BA42E3199D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5034CFEE-F734-ED52-18CB-7953555A0943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,7 +9167,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8177B9B-3470-4C23-AF0B-FEBDD938615D}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8177B9B-3470-4C23-AF0B-FEBDD938615D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -663,7 +9236,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0D12108-E525-45D9-A984-3B90AD97F214}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0D12108-E525-45D9-A984-3B90AD97F214}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -712,8 +9285,8 @@
   <autoFilter ref="D3:F12" xr:uid="{FFD763F4-59F0-4BC8-A46E-D0A0DBA27D62}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{106CC0F8-7A05-49B9-86A1-E6B89E138166}" name="Categories" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8B92F0CA-F88C-4BE9-A246-9216120585F5}" name="Frequency" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{77C2CFDC-7AB5-4A03-8A3D-B97AC4BAD2F9}" name="Relative Frequency" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{8B92F0CA-F88C-4BE9-A246-9216120585F5}" name="Frequency" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{77C2CFDC-7AB5-4A03-8A3D-B97AC4BAD2F9}" name="Relative Frequency" dataDxfId="2">
       <calculatedColumnFormula>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -722,12 +9295,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F41DE7F-A2DA-4F08-94D1-DEA36916E44C}" name="Table3" displayName="Table3" ref="A8:C11" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F41DE7F-A2DA-4F08-94D1-DEA36916E44C}" name="Table3" displayName="Table3" ref="A8:C11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A8:C11" xr:uid="{9F41DE7F-A2DA-4F08-94D1-DEA36916E44C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1F18B233-58C7-4291-861B-C63571EF0202}" name="Category"/>
     <tableColumn id="2" xr3:uid="{2B237E28-7848-4BC8-8DCC-1C9890DB44C5}" name="Frequency"/>
-    <tableColumn id="3" xr3:uid="{F4DA8D67-65D7-439F-87BB-DB0D7071EE43}" name="Relative Frequency" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{F4DA8D67-65D7-439F-87BB-DB0D7071EE43}" name="Relative Frequency" dataDxfId="0">
       <calculatedColumnFormula>ROUND(Table3[[#This Row],[Frequency]]/B$11,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -939,7 +9512,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1858,7 +10431,7 @@
   <dimension ref="A3:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1890,13 +10463,13 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1904,26 +10477,26 @@
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f>ROUND(I4/I$12,2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1932,26 +10505,26 @@
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>0.2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>6</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f t="shared" ref="J5:J12" si="0">ROUND(I5/I$12,2)</f>
         <v>0.2</v>
       </c>
@@ -1960,26 +10533,26 @@
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>0.1</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1988,26 +10561,26 @@
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2016,26 +10589,26 @@
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>0.1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>3</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -2044,26 +10617,26 @@
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>0.13</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <v>4</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -2072,26 +10645,26 @@
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>0.17</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>5</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
@@ -2100,26 +10673,26 @@
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>0.17</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>5</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
@@ -2128,7 +10701,7 @@
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
@@ -2137,17 +10710,17 @@
       <c r="E12">
         <v>30</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <f>ROUND(Table2[[#This Row],[Frequency]]/E$12,2)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>30</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2164,8 +10737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF179511-BE3C-4A85-9F26-EBA08FFB9A15}">
   <dimension ref="A3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2187,7 +10760,7 @@
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>11</v>
       </c>
     </row>
@@ -2195,7 +10768,7 @@
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>19</v>
       </c>
     </row>
@@ -2203,18 +10776,18 @@
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2222,7 +10795,7 @@
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>11</v>
       </c>
       <c r="C9">
@@ -2234,7 +10807,7 @@
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>19</v>
       </c>
       <c r="C10">
@@ -2255,48 +10828,48 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f>ROUND(B14/B$16,2)</f>
         <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>19</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f t="shared" ref="C15:C16" si="0">ROUND(B15/B$16,2)</f>
         <v>0.63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>30</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2307,4 +10880,635 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE51B02-59BE-4485-B1B2-BA13B1D804CB}">
+  <dimension ref="A2:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11">
+        <v>11</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11">
+        <v>19</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB1983-0B22-461A-B263-8671689DA83F}">
+  <dimension ref="A2:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11">
+        <v>11</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="11">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2E9329-C2C3-44E8-B46E-D41E58453925}">
+  <dimension ref="A2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11">
+        <v>11</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11">
+        <v>19</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F44D22B-AB38-4739-8E88-0F7E0835A560}">
+  <dimension ref="A2:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11">
+        <v>19</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="11">
+        <v>11</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L3:N11">
+    <sortCondition descending="1" ref="M1:M11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>